--- a/biology/Zoologie/Combattant_du_Nord/Combattant_du_Nord.xlsx
+++ b/biology/Zoologie/Combattant_du_Nord/Combattant_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le combattant du Nord est une race de poules domestiques dont on destine les coqs au combat. Il existe également des souches pour les expositions.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe trois types de combattants du Nord officiellement reconnus par la Société centrale d'aviculture de France, et dans les gallodromes de sa région où le coqueleux le fait combattre par catégorie de poids :
 Le grand combattant du Nord ;
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race de coq de combat originaire des Hauts-de-France, où il est élevé et où existe encore de nos jours des combats organisés (c'est en effet la seule région de France métropolitaine où sont autorisés les gallodromes). Du fait de leur combativité, très jeunes, les coqs sont élevés séparément ; ils sont écrêtés et ont le barbillon coupé. C'est la race de coqs préférée des Réunionnais et des gens du Nord ; race préférée entre autres pour leur combativité. Ces oiseaux sont appelées « coqs pays et poules pays » ou « coqs la cour et poules la cour » à La Réunion.
 </t>
@@ -576,7 +592,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Crête : simple
 Oreillons : rouges
@@ -623,7 +641,9 @@
           <t>Club officiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Club Français du Combattant du Nord, 5 rue du Bois, 62620 Maisnil-les-Ruitz.</t>
         </is>
